--- a/server/docs/DungeonCfgExcel_com.wan37.config.entity.DungeonCfgExcel.xlsx
+++ b/server/docs/DungeonCfgExcel_com.wan37.config.entity.DungeonCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADCC5F2-8556-4EF0-89EF-2BBD5527AAF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A22CBF-DBE7-4E41-B0D2-85BE1449CC98}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20001:2,20002:20003:1|30001:2,30002:2,30003:3,30004:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sceneId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +84,10 @@
   </si>
   <si>
     <t>帮小坤夺回被抢走的时间！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001:2,20002:2,20003:1|30001:2,30002:2,30003:3,30004:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +419,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -463,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -474,10 +474,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -489,7 +489,7 @@
         <v>2001</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -497,10 +497,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>2001</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/DungeonCfgExcel_com.wan37.config.entity.DungeonCfgExcel.xlsx
+++ b/server/docs/DungeonCfgExcel_com.wan37.config.entity.DungeonCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A22CBF-DBE7-4E41-B0D2-85BE1449CC98}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2649148D-0167-42D2-BCA6-4B8DCA02D9AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,7 +87,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20001:2,20002:2,20003:1|30001:2,30002:2,30003:3,30004:1</t>
+    <t>20001:2,20002:1,20003:1|30001:2,30002:1,30003:1,30004:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20003:1|30004:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>completeTip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【世界】英勇的[%s]挑战[%s]成功，成功拯救了小麦吉！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【世界】英勇的[%s]挑战[%s]成功，帮小坤夺回被抢走的时间！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -430,9 +454,10 @@
     <col min="5" max="5" width="39.109375" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -445,8 +470,14 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -468,8 +499,11 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -491,8 +525,11 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -500,7 +537,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -513,6 +550,9 @@
       </c>
       <c r="G4" t="s">
         <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/DungeonCfgExcel_com.wan37.config.entity.DungeonCfgExcel.xlsx
+++ b/server/docs/DungeonCfgExcel_com.wan37.config.entity.DungeonCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2649148D-0167-42D2-BCA6-4B8DCA02D9AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2121439-69B1-417B-A347-F5855633A41F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,14 @@
   </si>
   <si>
     <t>【世界】英勇的[%s]挑战[%s]成功，帮小坤夺回被抢走的时间！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limitNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,6 +174,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -185,7 +261,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -440,44 +516,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="58.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="39.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="31.44140625" customWidth="1"/>
+    <col min="2" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="58.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -485,73 +564,82 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2001</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2001</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>22</v>
       </c>
     </row>
